--- a/experiment/log4j_compile.xlsx
+++ b/experiment/log4j_compile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ProteaJ</t>
     <phoneticPr fontId="1"/>
@@ -42,6 +42,38 @@
   </si>
   <si>
     <t>deviation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ave.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var.s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stdev.s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pjc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProteaJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jastaddj</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -253,11 +285,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2085483656"/>
-        <c:axId val="2134177976"/>
+        <c:axId val="2137802376"/>
+        <c:axId val="2137345240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2085483656"/>
+        <c:axId val="2137802376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -266,7 +298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134177976"/>
+        <c:crossAx val="2137345240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -274,7 +306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134177976"/>
+        <c:axId val="2137345240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,7 +344,323 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085483656"/>
+        <c:crossAx val="2137802376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0553433398950131"/>
+          <c:y val="0.0494296577946768"/>
+          <c:w val="0.917573326771654"/>
+          <c:h val="0.873206790215862"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>_x0007_ProteaJ</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>_x0005_javac</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>_x0008_JastAddJ</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14.5788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:prstClr val="white"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.806675482045496</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$D$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.806675482045496</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="15875"/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>_x0007_ProteaJ</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>_x0005_javac</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>_x0008_JastAddJ</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.1762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$31:$G$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>0.113271600834258</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.325043945746828</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$E$31:$G$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>0.113271600834258</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.325043945746828</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="15875"/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>2.8743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2143558648"/>
+        <c:axId val="2143321352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2143558648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2143321352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2143321352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0645833333333333"/>
+              <c:y val="0.0594170833208587"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2143558648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -338,16 +686,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -361,6 +709,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -691,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -872,6 +1250,270 @@
       <c r="D14">
         <f t="shared" si="2"/>
         <v>0.26188846226335877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19">
+        <v>14.366</v>
+      </c>
+      <c r="C19">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="D19">
+        <f>B19+C19</f>
+        <v>17.465</v>
+      </c>
+      <c r="F19">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="G19">
+        <v>4.266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20">
+        <v>15.106</v>
+      </c>
+      <c r="C20">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D28" si="3">B20+C20</f>
+        <v>18.341999999999999</v>
+      </c>
+      <c r="F20">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="G20">
+        <v>5.0730000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21">
+        <v>16.114000000000001</v>
+      </c>
+      <c r="C21">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>19.172000000000001</v>
+      </c>
+      <c r="F21">
+        <v>3.024</v>
+      </c>
+      <c r="G21">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22">
+        <v>14.667999999999999</v>
+      </c>
+      <c r="C22">
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>17.739999999999998</v>
+      </c>
+      <c r="F22">
+        <v>3.0190000000000001</v>
+      </c>
+      <c r="G22">
+        <v>4.6219999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23">
+        <v>13.340999999999999</v>
+      </c>
+      <c r="C23">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>16.597999999999999</v>
+      </c>
+      <c r="F23">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="G23">
+        <v>4.3280000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24">
+        <v>14.826000000000001</v>
+      </c>
+      <c r="C24">
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>17.990000000000002</v>
+      </c>
+      <c r="F24">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="G24">
+        <v>5.0140000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25">
+        <v>13.936999999999999</v>
+      </c>
+      <c r="C25">
+        <v>3.2730000000000001</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>17.21</v>
+      </c>
+      <c r="F25">
+        <v>2.69</v>
+      </c>
+      <c r="G25">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26">
+        <v>13.417</v>
+      </c>
+      <c r="C26">
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>16.616</v>
+      </c>
+      <c r="F26">
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="G26">
+        <v>5.077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27">
+        <v>14.944000000000001</v>
+      </c>
+      <c r="C27">
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>18.108000000000001</v>
+      </c>
+      <c r="F27">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="G27">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28">
+        <v>15.069000000000001</v>
+      </c>
+      <c r="C28">
+        <v>3.24</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>18.309000000000001</v>
+      </c>
+      <c r="F28">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="G28">
+        <v>4.617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <f>AVERAGE(B19:B28)</f>
+        <v>14.578799999999998</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:D29" si="4">AVERAGE(C19:C28)</f>
+        <v>3.1762000000000001</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>17.754999999999999</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(F19:F28)</f>
+        <v>2.8742999999999999</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(G19:G28)</f>
+        <v>4.7706999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <f>_xlfn.VAR.S(B19:B28)</f>
+        <v>0.71295884444444524</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:D30" si="5">_xlfn.VAR.S(C19:C28)</f>
+        <v>6.1279555555555634E-3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>0.65072533333333393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <f>_xlfn.STDEV.S(B19:B28)</f>
+        <v>0.84436890305389933</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:D31" si="6">_xlfn.STDEV.S(C19:C28)</f>
+        <v>7.8281259286981097E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="6"/>
+        <v>0.80667548204549633</v>
+      </c>
+      <c r="F31">
+        <f>_xlfn.STDEV.S(F19:F28)</f>
+        <v>0.11327160083425836</v>
+      </c>
+      <c r="G31">
+        <f>_xlfn.STDEV.S(G19:G28)</f>
+        <v>0.32504394574682766</v>
       </c>
     </row>
   </sheetData>
